--- a/backend/documents/protocolo-2025.xlsx
+++ b/backend/documents/protocolo-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arias\OneDrive\Desktop\stack\backend\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB16EBB-E210-4188-81E8-0D79956630FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD20131-FA3C-4D0F-B584-5D3A6E74B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" xr2:uid="{E92B247C-96EB-4511-B491-B0B454C203E4}"/>
   </bookViews>
@@ -2259,6 +2259,162 @@
     <xf numFmtId="172" fontId="24" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2283,12 +2439,6 @@
     <xf numFmtId="172" fontId="20" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2319,17 +2469,8 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2352,146 +2493,101 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2502,6 +2598,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2523,15 +2637,6 @@
     <xf numFmtId="167" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2540,111 +2645,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3146,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69C52E3-4990-4A87-9E76-2E2C6A72F062}">
   <dimension ref="A1:CX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="34" zoomScaleNormal="34" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="34" zoomScaleNormal="34" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3181,66 +3181,66 @@
     <row r="1" spans="1:25" ht="50.45" customHeight="1">
       <c r="A1" s="122"/>
       <c r="B1" s="81"/>
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="242"/>
-      <c r="S1" s="242"/>
-      <c r="T1" s="242"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
       <c r="U1" s="82"/>
       <c r="V1" s="83"/>
       <c r="W1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="244" t="s">
+      <c r="X1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="245"/>
+      <c r="Y1" s="244"/>
     </row>
     <row r="2" spans="1:25" ht="28.5" thickBot="1">
       <c r="A2" s="123"/>
       <c r="B2" s="84"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="243"/>
-      <c r="O2" s="243"/>
-      <c r="P2" s="243"/>
-      <c r="Q2" s="243"/>
-      <c r="R2" s="243"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="243"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
       <c r="U2" s="85"/>
       <c r="V2" s="86"/>
       <c r="W2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="246" t="s">
+      <c r="X2" s="245" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="247"/>
+      <c r="Y2" s="246"/>
     </row>
     <row r="3" spans="1:25" ht="18">
       <c r="A3" s="35"/>
@@ -3272,10 +3272,10 @@
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="44"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="268"/>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
@@ -3297,11 +3297,11 @@
       <c r="Y5" s="135"/>
     </row>
     <row r="6" spans="1:25" s="36" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="257" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="258"/>
       <c r="D6" s="162"/>
       <c r="E6" s="163" t="s">
         <v>77</v>
@@ -3311,86 +3311,77 @@
       </c>
       <c r="G6" s="156"/>
       <c r="H6" s="77"/>
-      <c r="I6" s="219" t="s">
+      <c r="I6" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="220"/>
-      <c r="K6" s="221"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="269"/>
       <c r="L6" s="79"/>
       <c r="M6" s="79"/>
       <c r="N6" s="79"/>
-      <c r="O6" s="248" t="s">
+      <c r="O6" s="247" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="252" t="s">
+      <c r="P6" s="248"/>
+      <c r="Q6" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="253"/>
+      <c r="R6" s="252"/>
       <c r="S6" s="77"/>
-      <c r="T6" s="256" t="s">
+      <c r="T6" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="260" t="s">
+      <c r="U6" s="218"/>
+      <c r="V6" s="259" t="s">
         <v>88</v>
       </c>
-      <c r="W6" s="231" t="s">
+      <c r="W6" s="219" t="s">
         <v>116</v>
       </c>
       <c r="X6" s="133"/>
       <c r="Y6" s="135"/>
     </row>
     <row r="7" spans="1:25" s="133" customFormat="1" ht="54" customHeight="1" thickBot="1">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="226"/>
+      <c r="B7" s="274"/>
       <c r="C7" s="169"/>
       <c r="D7" s="64"/>
       <c r="E7" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="182">
-        <f>(C7*0.88)</f>
-        <v>0</v>
-      </c>
+      <c r="F7" s="182"/>
       <c r="H7" s="132"/>
-      <c r="I7" s="222" t="s">
+      <c r="I7" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="223"/>
-      <c r="K7" s="224"/>
+      <c r="J7" s="271"/>
+      <c r="K7" s="272"/>
       <c r="L7" s="132"/>
       <c r="M7" s="132"/>
       <c r="N7" s="132"/>
-      <c r="O7" s="250"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="255"/>
+      <c r="O7" s="249"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="254"/>
       <c r="S7" s="132"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="259"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="232"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="260"/>
+      <c r="W7" s="279"/>
     </row>
     <row r="8" spans="1:25" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="A8" s="262" t="s">
+      <c r="A8" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="185">
-        <f>F9*C9</f>
-        <v>0</v>
-      </c>
+      <c r="B8" s="212"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="171"/>
       <c r="E8" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="183">
-        <f>(C7*0.54)</f>
-        <v>0</v>
-      </c>
+      <c r="F8" s="183"/>
       <c r="G8" s="151"/>
       <c r="H8" s="77"/>
       <c r="I8" s="129" t="s">
@@ -3405,10 +3396,10 @@
       <c r="L8" s="77"/>
       <c r="M8" s="77"/>
       <c r="N8" s="77"/>
-      <c r="O8" s="240" t="s">
+      <c r="O8" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="241"/>
+      <c r="P8" s="286"/>
       <c r="Q8" s="130" t="s">
         <v>67</v>
       </c>
@@ -3416,33 +3407,27 @@
         <v>11</v>
       </c>
       <c r="S8" s="77"/>
-      <c r="T8" s="227" t="s">
+      <c r="T8" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="228"/>
+      <c r="U8" s="276"/>
       <c r="V8" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="W8" s="175">
-        <f>(1423500*1.37)</f>
-        <v>1950195.0000000002</v>
-      </c>
+      <c r="W8" s="175"/>
       <c r="X8" s="133"/>
     </row>
     <row r="9" spans="1:25" s="36" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A9" s="271" t="s">
+      <c r="A9" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="272"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="181"/>
       <c r="D9" s="172"/>
       <c r="E9" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="184">
-        <f>(C7*0.34)</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="184"/>
       <c r="G9" s="152"/>
       <c r="H9" s="77"/>
       <c r="I9" s="96"/>
@@ -3454,33 +3439,30 @@
       <c r="L9" s="77"/>
       <c r="M9" s="77"/>
       <c r="N9" s="77"/>
-      <c r="O9" s="238">
+      <c r="O9" s="283">
         <f>C7*16%</f>
         <v>0</v>
       </c>
-      <c r="P9" s="239"/>
+      <c r="P9" s="284"/>
       <c r="Q9" s="65"/>
       <c r="R9" s="158">
         <f>O9*Q9</f>
         <v>0</v>
       </c>
       <c r="S9" s="77"/>
-      <c r="T9" s="229" t="s">
+      <c r="T9" s="277" t="s">
         <v>87</v>
       </c>
-      <c r="U9" s="230"/>
+      <c r="U9" s="278"/>
       <c r="V9" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="W9" s="177">
-        <f>(1423500*1.51)</f>
-        <v>2149485</v>
-      </c>
+      <c r="W9" s="177"/>
       <c r="X9" s="133"/>
     </row>
     <row r="10" spans="1:25" s="36" customFormat="1" ht="51.6" customHeight="1" thickBot="1">
-      <c r="A10" s="235"/>
-      <c r="B10" s="235"/>
+      <c r="A10" s="280"/>
+      <c r="B10" s="280"/>
       <c r="C10" s="160"/>
       <c r="D10" s="161"/>
       <c r="E10" s="77"/>
@@ -3496,10 +3478,10 @@
       <c r="L10" s="77"/>
       <c r="M10" s="77"/>
       <c r="N10" s="77"/>
-      <c r="O10" s="266" t="s">
+      <c r="O10" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="267"/>
+      <c r="P10" s="216"/>
       <c r="Q10" s="99">
         <f>SUM(Q9)</f>
         <v>0</v>
@@ -3509,17 +3491,14 @@
         <v>0</v>
       </c>
       <c r="S10" s="77"/>
-      <c r="T10" s="236" t="s">
+      <c r="T10" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="237"/>
+      <c r="U10" s="282"/>
       <c r="V10" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="W10" s="176">
-        <f>(1423500*1.87)</f>
-        <v>2661945</v>
-      </c>
+      <c r="W10" s="176"/>
       <c r="X10" s="133"/>
     </row>
     <row r="11" spans="1:25" s="36" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
@@ -3547,14 +3526,14 @@
       <c r="X11" s="133"/>
     </row>
     <row r="12" spans="1:25" s="36" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A12" s="284" t="s">
+      <c r="A12" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="285"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="285"/>
-      <c r="E12" s="285"/>
-      <c r="F12" s="286"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="238"/>
       <c r="G12" s="157"/>
       <c r="H12" s="77"/>
       <c r="I12" s="96"/>
@@ -3576,14 +3555,14 @@
       <c r="X12" s="133"/>
     </row>
     <row r="13" spans="1:25" s="36" customFormat="1" ht="63.6" customHeight="1" thickBot="1">
-      <c r="A13" s="233" t="s">
+      <c r="A13" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="234"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="274"/>
+      <c r="B13" s="240"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="226"/>
       <c r="G13" s="153"/>
       <c r="H13" s="77"/>
       <c r="I13" s="96"/>
@@ -3593,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="77"/>
-      <c r="M13" s="278" t="s">
+      <c r="M13" s="230" t="s">
         <v>9</v>
       </c>
       <c r="N13" s="77"/>
@@ -3602,13 +3581,13 @@
       <c r="X13" s="133"/>
     </row>
     <row r="14" spans="1:25" s="36" customFormat="1" ht="66" customHeight="1" thickBot="1">
-      <c r="A14" s="233" t="s">
+      <c r="A14" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="280"/>
-      <c r="D14" s="280"/>
-      <c r="E14" s="281"/>
+      <c r="B14" s="240"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
       <c r="F14" s="119" t="s">
         <v>64</v>
       </c>
@@ -3621,21 +3600,21 @@
         <v>0</v>
       </c>
       <c r="L14" s="77"/>
-      <c r="M14" s="279"/>
+      <c r="M14" s="231"/>
       <c r="N14" s="77"/>
-      <c r="O14" s="256" t="s">
+      <c r="O14" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="231"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="219"/>
       <c r="S14" s="77"/>
     </row>
     <row r="15" spans="1:25" s="36" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="234"/>
+      <c r="B15" s="240"/>
       <c r="C15" s="101"/>
       <c r="D15" s="102"/>
       <c r="E15" s="102"/>
@@ -3668,14 +3647,14 @@
       <c r="S15" s="78"/>
     </row>
     <row r="16" spans="1:25" s="36" customFormat="1" ht="54" customHeight="1" thickBot="1">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="281"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="283"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
       <c r="G16" s="153"/>
       <c r="H16" s="77"/>
       <c r="I16" s="96"/>
@@ -3709,14 +3688,14 @@
       <c r="S16" s="77"/>
     </row>
     <row r="17" spans="1:102" s="36" customFormat="1" ht="42.6" customHeight="1" thickBot="1">
-      <c r="A17" s="269" t="s">
+      <c r="A17" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="270"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="276"/>
-      <c r="E17" s="276"/>
-      <c r="F17" s="277"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="229"/>
       <c r="G17" s="155"/>
       <c r="H17" s="77"/>
       <c r="I17" s="88" t="s">
@@ -3741,27 +3720,27 @@
     </row>
     <row r="18" spans="1:102" s="36" customFormat="1" ht="42" customHeight="1">
       <c r="H18" s="44"/>
-      <c r="I18" s="268"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="268"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:102" s="36" customFormat="1" ht="42.6" customHeight="1" thickBot="1">
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
-      <c r="H19" s="265"/>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="265"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="265"/>
-      <c r="O19" s="265"/>
-      <c r="P19" s="265"/>
-      <c r="Q19" s="265"/>
-      <c r="R19" s="265"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="214"/>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
@@ -3917,32 +3896,32 @@
       <c r="CX20" s="138"/>
     </row>
     <row r="21" spans="1:102" s="36" customFormat="1" ht="105" customHeight="1">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="212"/>
-      <c r="N21" s="212"/>
-      <c r="O21" s="212"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="212"/>
-      <c r="V21" s="212"/>
-      <c r="W21" s="212"/>
-      <c r="X21" s="213"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="262"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="262"/>
+      <c r="T21" s="262"/>
+      <c r="U21" s="262"/>
+      <c r="V21" s="262"/>
+      <c r="W21" s="262"/>
+      <c r="X21" s="263"/>
       <c r="Y21" s="145"/>
     </row>
     <row r="22" spans="1:102" s="36" customFormat="1" ht="99" customHeight="1">
@@ -4183,32 +4162,32 @@
       <c r="CX24" s="138"/>
     </row>
     <row r="25" spans="1:102" s="36" customFormat="1" ht="74.25" customHeight="1" thickBot="1">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="215"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="215"/>
-      <c r="R25" s="215"/>
-      <c r="S25" s="215"/>
-      <c r="T25" s="215"/>
-      <c r="U25" s="215"/>
-      <c r="V25" s="215"/>
-      <c r="W25" s="215"/>
-      <c r="X25" s="216"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="265"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="265"/>
+      <c r="H25" s="265"/>
+      <c r="I25" s="265"/>
+      <c r="J25" s="265"/>
+      <c r="K25" s="265"/>
+      <c r="L25" s="265"/>
+      <c r="M25" s="265"/>
+      <c r="N25" s="265"/>
+      <c r="O25" s="265"/>
+      <c r="P25" s="265"/>
+      <c r="Q25" s="265"/>
+      <c r="R25" s="265"/>
+      <c r="S25" s="265"/>
+      <c r="T25" s="265"/>
+      <c r="U25" s="265"/>
+      <c r="V25" s="265"/>
+      <c r="W25" s="265"/>
+      <c r="X25" s="266"/>
       <c r="Y25" s="149"/>
       <c r="AA25" s="140"/>
     </row>
@@ -4427,32 +4406,32 @@
     </row>
     <row r="28" spans="1:102" s="36" customFormat="1" ht="54.6" customHeight="1">
       <c r="A28" s="147"/>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="264"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="264"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="264"/>
-      <c r="T28" s="264"/>
-      <c r="U28" s="264"/>
-      <c r="V28" s="264"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="213"/>
+      <c r="L28" s="213"/>
+      <c r="M28" s="213"/>
+      <c r="N28" s="213"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="213"/>
+      <c r="S28" s="213"/>
+      <c r="T28" s="213"/>
+      <c r="U28" s="213"/>
+      <c r="V28" s="213"/>
+      <c r="W28" s="213"/>
+      <c r="X28" s="213"/>
+      <c r="Y28" s="213"/>
       <c r="AA28" s="140"/>
     </row>
     <row r="29" spans="1:102" s="36" customFormat="1" ht="20.25">
@@ -4488,6 +4467,30 @@
     <protectedRange sqref="B26" name="Rango1_8_1_2_3_1_3_1_2"/>
   </protectedRanges>
   <mergeCells count="40">
+    <mergeCell ref="A21:X21"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C1:T2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="B28:Y28"/>
     <mergeCell ref="H19:R19"/>
@@ -4504,30 +4507,6 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C1:T2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="T6:U7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="A21:X21"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="3.937007874015748E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4561,15 +4540,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="36" customHeight="1">
-      <c r="B2" s="320"/>
-      <c r="C2" s="322" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="324"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="291"/>
       <c r="I2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4578,13 +4557,13 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1">
-      <c r="B3" s="321"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="327"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="294"/>
       <c r="I3" s="19" t="s">
         <v>2</v>
       </c>
@@ -4594,20 +4573,20 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" customHeight="1"/>
     <row r="6" spans="2:10" ht="24" customHeight="1">
-      <c r="B6" s="300" t="s">
+      <c r="B6" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301">
+      <c r="C6" s="335"/>
+      <c r="D6" s="335"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="336">
         <f>PROTOCOLO!C14</f>
         <v>0</v>
       </c>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -4627,26 +4606,26 @@
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="302">
+      <c r="G7" s="337">
         <f>PROTOCOLO!C16</f>
         <v>0</v>
       </c>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="302"/>
+      <c r="H7" s="337"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="337"/>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1">
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="300"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="335"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" customHeight="1">
       <c r="B9" s="5"/>
@@ -4660,175 +4639,175 @@
       <c r="J9" s="5"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" customHeight="1">
-      <c r="C11" s="303">
+      <c r="C11" s="306">
         <f>PROTOCOLO!C13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="304"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="304"/>
-      <c r="I11" s="305"/>
+      <c r="D11" s="307"/>
+      <c r="E11" s="307"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="311"/>
     </row>
     <row r="12" spans="2:10" ht="30.75" customHeight="1">
-      <c r="C12" s="303">
+      <c r="C12" s="306">
         <f>PROTOCOLO!C14</f>
         <v>0</v>
       </c>
-      <c r="D12" s="304"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="334"/>
+      <c r="D12" s="307"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="307"/>
+      <c r="H12" s="307"/>
+      <c r="I12" s="308"/>
     </row>
     <row r="13" spans="2:10" ht="30.75" customHeight="1">
-      <c r="C13" s="335">
+      <c r="C13" s="309">
         <f>PROTOCOLO!C15</f>
         <v>0</v>
       </c>
-      <c r="D13" s="336"/>
-      <c r="E13" s="336"/>
-      <c r="F13" s="336"/>
-      <c r="G13" s="336"/>
-      <c r="H13" s="336"/>
-      <c r="I13" s="305"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="310"/>
+      <c r="G13" s="310"/>
+      <c r="H13" s="310"/>
+      <c r="I13" s="311"/>
     </row>
     <row r="14" spans="2:10" ht="30.75" customHeight="1">
-      <c r="C14" s="335">
+      <c r="C14" s="309">
         <f>PROTOCOLO!E15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="336"/>
-      <c r="G14" s="336"/>
-      <c r="H14" s="336"/>
-      <c r="I14" s="305"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310"/>
+      <c r="F14" s="310"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="310"/>
+      <c r="I14" s="311"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="337"/>
-      <c r="D15" s="337"/>
-      <c r="E15" s="337"/>
-      <c r="F15" s="337"/>
-      <c r="G15" s="337"/>
-      <c r="H15" s="337"/>
-      <c r="I15" s="337"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="312"/>
+      <c r="G15" s="312"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="312"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
-      <c r="C16" s="287" t="s">
+      <c r="C16" s="319" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="289"/>
+      <c r="D16" s="320"/>
+      <c r="E16" s="320"/>
+      <c r="F16" s="320"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="320"/>
+      <c r="I16" s="321"/>
     </row>
     <row r="17" spans="3:10" ht="15.75">
-      <c r="C17" s="290"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="292"/>
-      <c r="I17" s="293"/>
+      <c r="C17" s="328"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="331"/>
     </row>
     <row r="18" spans="3:10" ht="40.5" customHeight="1">
-      <c r="C18" s="297" t="s">
+      <c r="C18" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="298"/>
-      <c r="E18" s="298"/>
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="299"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="305"/>
       <c r="I18" s="21">
         <f>PROTOCOLO!C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="40.5" customHeight="1">
-      <c r="C19" s="297" t="s">
+      <c r="C19" s="303" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="299"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="305"/>
       <c r="I19" s="21">
         <f>PROTOCOLO!R10</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="40.5" customHeight="1">
-      <c r="C20" s="297" t="s">
+      <c r="C20" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="298"/>
-      <c r="E20" s="298"/>
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="299"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="305"/>
       <c r="I20" s="21">
         <f>PROTOCOLO!K17</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="40.5" customHeight="1">
-      <c r="C21" s="297" t="s">
+      <c r="C21" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="298"/>
-      <c r="E21" s="298"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="299"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="305"/>
       <c r="I21" s="21">
         <f>PROTOCOLO!P16</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="40.5" customHeight="1">
-      <c r="C22" s="297" t="s">
+      <c r="C22" s="303" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="298"/>
-      <c r="E22" s="298"/>
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="299"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="304"/>
+      <c r="H22" s="305"/>
       <c r="I22" s="21">
         <f>PROTOCOLO!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="40.5" customHeight="1" thickBot="1">
-      <c r="C23" s="297" t="s">
+      <c r="C23" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="298"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="299"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="305"/>
       <c r="I23" s="21">
         <f>I20</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="39.75" customHeight="1" thickBot="1">
-      <c r="C24" s="311" t="s">
+      <c r="C24" s="316" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="312"/>
-      <c r="E24" s="312"/>
-      <c r="F24" s="312"/>
-      <c r="G24" s="312"/>
-      <c r="H24" s="313"/>
+      <c r="D24" s="317"/>
+      <c r="E24" s="317"/>
+      <c r="F24" s="317"/>
+      <c r="G24" s="317"/>
+      <c r="H24" s="318"/>
       <c r="I24" s="22">
         <f>I19+I20+I21+I22</f>
         <v>0</v>
@@ -4844,39 +4823,39 @@
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="3:10" ht="30" customHeight="1">
-      <c r="C26" s="287" t="s">
+      <c r="C26" s="319" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="288"/>
-      <c r="I26" s="289"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="320"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="320"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="321"/>
     </row>
     <row r="27" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C27" s="314" t="s">
+      <c r="C27" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="315"/>
-      <c r="E27" s="315"/>
-      <c r="F27" s="315"/>
-      <c r="G27" s="315"/>
-      <c r="H27" s="315"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="323"/>
+      <c r="G27" s="323"/>
+      <c r="H27" s="323"/>
       <c r="I27" s="24">
         <f>PROTOCOLO!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C28" s="316" t="s">
+      <c r="C28" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="317"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="317"/>
-      <c r="H28" s="318"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="326"/>
       <c r="I28" s="25">
         <f>PROTOCOLO!Q23</f>
         <v>0</v>
@@ -4884,14 +4863,14 @@
       <c r="J28" s="131"/>
     </row>
     <row r="29" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C29" s="309" t="s">
+      <c r="C29" s="301" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="310"/>
-      <c r="E29" s="310"/>
-      <c r="F29" s="310"/>
-      <c r="G29" s="310"/>
-      <c r="H29" s="310"/>
+      <c r="D29" s="302"/>
+      <c r="E29" s="302"/>
+      <c r="F29" s="302"/>
+      <c r="G29" s="302"/>
+      <c r="H29" s="302"/>
       <c r="I29" s="25">
         <f>PROTOCOLO!V27</f>
         <v>0</v>
@@ -4899,28 +4878,28 @@
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C30" s="309" t="s">
+      <c r="C30" s="301" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="310"/>
+      <c r="D30" s="302"/>
+      <c r="E30" s="302"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="302"/>
+      <c r="H30" s="302"/>
       <c r="I30" s="25">
         <f>PROTOCOLO!R27</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C31" s="309" t="s">
+      <c r="C31" s="301" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="310"/>
-      <c r="E31" s="310"/>
-      <c r="F31" s="310"/>
-      <c r="G31" s="310"/>
-      <c r="H31" s="310"/>
+      <c r="D31" s="302"/>
+      <c r="E31" s="302"/>
+      <c r="F31" s="302"/>
+      <c r="G31" s="302"/>
+      <c r="H31" s="302"/>
       <c r="I31" s="21">
         <f>PROTOCOLO!T27</f>
         <v>0</v>
@@ -4928,14 +4907,14 @@
       <c r="J31" s="26"/>
     </row>
     <row r="32" spans="3:10" ht="28.5" customHeight="1">
-      <c r="C32" s="294" t="s">
+      <c r="C32" s="332" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="295"/>
-      <c r="E32" s="295"/>
-      <c r="F32" s="295"/>
-      <c r="G32" s="295"/>
-      <c r="H32" s="296"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="333"/>
+      <c r="G32" s="333"/>
+      <c r="H32" s="334"/>
       <c r="I32" s="21">
         <f>PROTOCOLO!K17*35%</f>
         <v>0</v>
@@ -4943,14 +4922,14 @@
       <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:10" ht="28.5" customHeight="1" thickBot="1">
-      <c r="C33" s="309" t="s">
+      <c r="C33" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="310"/>
-      <c r="E33" s="310"/>
-      <c r="F33" s="310"/>
-      <c r="G33" s="310"/>
-      <c r="H33" s="310"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="302"/>
       <c r="I33" s="21">
         <f>I21</f>
         <v>0</v>
@@ -4967,14 +4946,14 @@
       <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C35" s="328" t="s">
+      <c r="C35" s="295" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="329"/>
-      <c r="E35" s="329"/>
-      <c r="F35" s="329"/>
-      <c r="G35" s="329"/>
-      <c r="H35" s="330"/>
+      <c r="D35" s="296"/>
+      <c r="E35" s="296"/>
+      <c r="F35" s="296"/>
+      <c r="G35" s="296"/>
+      <c r="H35" s="297"/>
       <c r="I35" s="22">
         <f>SUM(I27:I34)</f>
         <v>0</v>
@@ -4990,28 +4969,28 @@
       <c r="I36" s="27"/>
     </row>
     <row r="37" spans="2:10" ht="25.5" customHeight="1">
-      <c r="C37" s="331" t="s">
+      <c r="C37" s="298" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="332"/>
-      <c r="E37" s="332"/>
-      <c r="F37" s="332"/>
-      <c r="G37" s="332"/>
-      <c r="H37" s="333"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="299"/>
+      <c r="G37" s="299"/>
+      <c r="H37" s="300"/>
       <c r="I37" s="28">
         <f>I24-I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="25.5" customHeight="1">
-      <c r="C38" s="331" t="s">
+      <c r="C38" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="332"/>
-      <c r="E38" s="332"/>
-      <c r="F38" s="332"/>
-      <c r="G38" s="332"/>
-      <c r="H38" s="333"/>
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="299"/>
+      <c r="H38" s="300"/>
       <c r="I38" s="29" t="e">
         <f>(I37/I24)</f>
         <v>#DIV/0!</v>
@@ -5143,70 +5122,70 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="18"/>
-      <c r="C50" s="307"/>
-      <c r="D50" s="307"/>
-      <c r="E50" s="307"/>
-      <c r="F50" s="307"/>
-      <c r="G50" s="307"/>
-      <c r="H50" s="307"/>
-      <c r="I50" s="307"/>
+      <c r="C50" s="314"/>
+      <c r="D50" s="314"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="314"/>
+      <c r="G50" s="314"/>
+      <c r="H50" s="314"/>
+      <c r="I50" s="314"/>
       <c r="J50" s="18"/>
     </row>
     <row r="51" spans="2:10" ht="24.75" customHeight="1">
-      <c r="C51" s="308" t="s">
+      <c r="C51" s="315" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="308"/>
-      <c r="E51" s="308"/>
-      <c r="F51" s="308"/>
-      <c r="G51" s="308"/>
-      <c r="H51" s="308"/>
-      <c r="I51" s="308"/>
+      <c r="D51" s="315"/>
+      <c r="E51" s="315"/>
+      <c r="F51" s="315"/>
+      <c r="G51" s="315"/>
+      <c r="H51" s="315"/>
+      <c r="I51" s="315"/>
       <c r="J51" s="34"/>
     </row>
     <row r="53" spans="2:10" ht="19.5" customHeight="1">
-      <c r="C53" s="319" t="s">
+      <c r="C53" s="327" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="319"/>
-      <c r="E53" s="319"/>
-      <c r="F53" s="319"/>
-      <c r="G53" s="319"/>
-      <c r="H53" s="319"/>
-      <c r="I53" s="319"/>
+      <c r="D53" s="327"/>
+      <c r="E53" s="327"/>
+      <c r="F53" s="327"/>
+      <c r="G53" s="327"/>
+      <c r="H53" s="327"/>
+      <c r="I53" s="327"/>
     </row>
     <row r="54" spans="2:10" ht="21" customHeight="1">
-      <c r="C54" s="306" t="s">
+      <c r="C54" s="313" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="306"/>
-      <c r="E54" s="306"/>
-      <c r="F54" s="306"/>
-      <c r="G54" s="306"/>
-      <c r="H54" s="306"/>
-      <c r="I54" s="306"/>
+      <c r="D54" s="313"/>
+      <c r="E54" s="313"/>
+      <c r="F54" s="313"/>
+      <c r="G54" s="313"/>
+      <c r="H54" s="313"/>
+      <c r="I54" s="313"/>
     </row>
     <row r="55" spans="2:10" ht="21" customHeight="1">
-      <c r="C55" s="306" t="s">
+      <c r="C55" s="313" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="306"/>
-      <c r="E55" s="306"/>
-      <c r="F55" s="306"/>
-      <c r="G55" s="306"/>
-      <c r="H55" s="306"/>
-      <c r="I55" s="306"/>
+      <c r="D55" s="313"/>
+      <c r="E55" s="313"/>
+      <c r="F55" s="313"/>
+      <c r="G55" s="313"/>
+      <c r="H55" s="313"/>
+      <c r="I55" s="313"/>
     </row>
     <row r="56" spans="2:10" ht="21" customHeight="1">
-      <c r="C56" s="306" t="s">
+      <c r="C56" s="313" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="306"/>
-      <c r="E56" s="306"/>
-      <c r="F56" s="306"/>
-      <c r="G56" s="306"/>
-      <c r="H56" s="306"/>
-      <c r="I56" s="306"/>
+      <c r="D56" s="313"/>
+      <c r="E56" s="313"/>
+      <c r="F56" s="313"/>
+      <c r="G56" s="313"/>
+      <c r="H56" s="313"/>
+      <c r="I56" s="313"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5214,6 +5193,27 @@
     <protectedRange sqref="C11:H15" name="Rango1_1_1_2" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="37">
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="C55:I55"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="C35:H35"/>
@@ -5230,27 +5230,6 @@
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="portrait" r:id="rId1"/>
